--- a/assets/samples/data.xlsx
+++ b/assets/samples/data.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franca/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franca/Documents/GitHub/gist/drop-excel/assets/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="329">
   <si>
     <t>S#</t>
   </si>
@@ -1011,6 +1012,9 @@
   </si>
   <si>
     <t>West Paducah, Kentucky</t>
+  </si>
+  <si>
+    <t>hey</t>
   </si>
 </sst>
 </file>
@@ -1328,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10676,4 +10680,63 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>